--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_09.11.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_09.11.19.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/s1cDNASample/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2B49B0-60C2-8C4C-8B50-B2A4CA649E6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="22220" yWindow="460" windowWidth="16180" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -55,26 +64,27 @@
     <t>NEBNextPoly(A)E7490</t>
   </si>
   <si>
-    <t>E7760</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>random</t>
+  </si>
+  <si>
+    <t>E7420</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -84,39 +94,46 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -306,20 +323,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -367,7 +389,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -375,7 +397,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
@@ -384,22 +406,22 @@
         <v>11</v>
       </c>
       <c r="F2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -407,7 +429,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
@@ -416,22 +438,22 @@
         <v>11</v>
       </c>
       <c r="F3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -439,7 +461,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
@@ -448,22 +470,22 @@
         <v>11</v>
       </c>
       <c r="F4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -471,7 +493,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>12</v>
@@ -480,22 +502,22 @@
         <v>11</v>
       </c>
       <c r="F5" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -503,7 +525,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
@@ -512,22 +534,22 @@
         <v>11</v>
       </c>
       <c r="F6" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -535,7 +557,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
@@ -544,22 +566,22 @@
         <v>11</v>
       </c>
       <c r="F7" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -567,7 +589,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
@@ -576,22 +598,22 @@
         <v>11</v>
       </c>
       <c r="F8" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -599,7 +621,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>12</v>
@@ -608,22 +630,22 @@
         <v>11</v>
       </c>
       <c r="F9" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -631,7 +653,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -640,22 +662,22 @@
         <v>11</v>
       </c>
       <c r="F10" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -663,7 +685,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
@@ -672,22 +694,22 @@
         <v>11</v>
       </c>
       <c r="F11" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -695,7 +717,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
@@ -704,22 +726,22 @@
         <v>11</v>
       </c>
       <c r="F12" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -727,7 +749,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
@@ -736,22 +758,22 @@
         <v>11</v>
       </c>
       <c r="F13" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -759,7 +781,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
@@ -768,22 +790,22 @@
         <v>11</v>
       </c>
       <c r="F14" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -791,7 +813,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
@@ -800,22 +822,22 @@
         <v>11</v>
       </c>
       <c r="F15" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -823,7 +845,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
@@ -832,22 +854,22 @@
         <v>11</v>
       </c>
       <c r="F16" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -855,7 +877,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
@@ -864,22 +886,22 @@
         <v>11</v>
       </c>
       <c r="F17" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_09.11.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_09.11.19.xlsx
@@ -61,7 +61,7 @@
     <t xml:space="preserve">09.11.19</t>
   </si>
   <si>
-    <t xml:space="preserve">NEBNextPoly(A)E7490</t>
+    <t xml:space="preserve">NEBNextPoly(A)E7490L</t>
   </si>
   <si>
     <t xml:space="preserve">E7420</t>
@@ -181,12 +181,14 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I17"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="27.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="14.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -262,7 +264,8 @@
       <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="3" t="b">
+      <c r="I2" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -294,7 +297,8 @@
       <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="3" t="b">
+      <c r="I3" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -326,7 +330,8 @@
       <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="3" t="b">
+      <c r="I4" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -358,7 +363,8 @@
       <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="3" t="b">
+      <c r="I5" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -390,7 +396,8 @@
       <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="3" t="b">
+      <c r="I6" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -422,7 +429,8 @@
       <c r="H7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="3" t="b">
+      <c r="I7" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -454,7 +462,8 @@
       <c r="H8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="3" t="b">
+      <c r="I8" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -486,7 +495,8 @@
       <c r="H9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="3" t="b">
+      <c r="I9" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -518,7 +528,8 @@
       <c r="H10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="3" t="b">
+      <c r="I10" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -550,7 +561,8 @@
       <c r="H11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="3" t="b">
+      <c r="I11" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -582,7 +594,8 @@
       <c r="H12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="3" t="b">
+      <c r="I12" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -614,7 +627,8 @@
       <c r="H13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="3" t="b">
+      <c r="I13" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -646,7 +660,8 @@
       <c r="H14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="3" t="b">
+      <c r="I14" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -678,7 +693,8 @@
       <c r="H15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="3" t="b">
+      <c r="I15" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -710,7 +726,8 @@
       <c r="H16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="3" t="b">
+      <c r="I16" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -742,7 +759,8 @@
       <c r="H17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="3" t="b">
+      <c r="I17" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">

--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_09.11.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_09.11.19.xlsx
@@ -61,10 +61,10 @@
     <t xml:space="preserve">09.11.19</t>
   </si>
   <si>
-    <t xml:space="preserve">NEBNextPoly(A)E7490L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E7420</t>
+    <t xml:space="preserve">E7490L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E7420L</t>
   </si>
   <si>
     <t xml:space="preserve">random</t>
@@ -178,10 +178,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G17"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -767,6 +767,7 @@
         <v>15</v>
       </c>
     </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_09.11.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_09.11.19.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">polyAIsolationProtocol</t>
   </si>
   <si>
-    <t xml:space="preserve">s1Protocol</t>
+    <t xml:space="preserve">s1cDNAProtocol</t>
   </si>
   <si>
     <t xml:space="preserve">roboticS1Prep</t>
@@ -181,7 +181,7 @@
   <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
